--- a/site/StructureDefinition-TumorPatient.xlsx
+++ b/site/StructureDefinition-TumorPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T07:55:24+00:00</t>
+    <t>2024-02-29T10:08:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-TumorPatient.xlsx
+++ b/site/StructureDefinition-TumorPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T10:08:17+00:00</t>
+    <t>2024-02-29T10:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-TumorPatient.xlsx
+++ b/site/StructureDefinition-TumorPatient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$86</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3375" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="629">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://krebsregister-rlp.de/fhir/tumorboard/StructureDefinition/TumorPatient</t>
+    <t>http://idg-rlp.de/fhir/tumorkonferenzen/StructureDefinition/TumorPatient</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T10:35:30+00:00</t>
+    <t>2024-04-07T13:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -636,7 +636,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://fhir.de/CodeSystem/identifier-type-de-basis"/&gt;
-    &lt;code value="GKV"/&gt;
+    &lt;code value="KVZ10"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -648,6 +648,10 @@
   </si>
   <si>
     <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+kvid-2:Als Type sollte der Code 'KVZ10' verwendet werden, die Codes 'GKV' und 'PKV' haben den Status 'retired' {($this.identifier.type.coding.exists(system='http://fhir.de/CodeSystem/identifier-type-de-basis' and code='GKV') or $this.identifier.type.coding.exists(system='http://fhir.de/CodeSystem/identifier-type-de-basis' and code='PKV')).not()}</t>
   </si>
   <si>
     <t>CX.5</t>
@@ -1178,12 +1182,6 @@
     <t>Patient.address.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
     <t>Patient.address.extension:Stadtteil</t>
   </si>
   <si>
@@ -1316,6 +1314,12 @@
   </si>
   <si>
     <t>Patient.address.line.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>Patient.address.line.extension:Strasse</t>
@@ -1555,65 +1559,6 @@
   </si>
   <si>
     <t>XAD.12 / XAD.13 + XAD.14</t>
-  </si>
-  <si>
-    <t>Patient.address.period.id</t>
-  </si>
-  <si>
-    <t>Patient.address.period.extension</t>
-  </si>
-  <si>
-    <t>Patient.address.period.start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Starting time with inclusive boundary</t>
-  </si>
-  <si>
-    <t>The start of the period. The boundary is inclusive.</t>
-  </si>
-  <si>
-    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
-  </si>
-  <si>
-    <t>Period.start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">per-1
-</t>
-  </si>
-  <si>
-    <t>./low</t>
-  </si>
-  <si>
-    <t>DR.1</t>
-  </si>
-  <si>
-    <t>Patient.address.period.end</t>
-  </si>
-  <si>
-    <t>End time with inclusive boundary, if not ongoing</t>
-  </si>
-  <si>
-    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
-  </si>
-  <si>
-    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
-  </si>
-  <si>
-    <t>If the end of the period is missing, it means that the period is ongoing</t>
-  </si>
-  <si>
-    <t>Period.end</t>
-  </si>
-  <si>
-    <t>./high</t>
-  </si>
-  <si>
-    <t>DR.2</t>
   </si>
   <si>
     <t>Patient.maritalStatus</t>
@@ -2366,7 +2311,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO90"/>
+  <dimension ref="A1:AO86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4277,7 +4222,7 @@
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>187</v>
@@ -4289,7 +4234,7 @@
         <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
@@ -4297,10 +4242,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4326,29 +4271,29 @@
         <v>101</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>79</v>
@@ -4384,7 +4329,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -4399,7 +4344,7 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>79</v>
@@ -4408,7 +4353,7 @@
         <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>79</v>
@@ -4416,10 +4361,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4445,13 +4390,13 @@
         <v>166</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4465,7 +4410,7 @@
         <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>79</v>
@@ -4501,7 +4446,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -4513,10 +4458,10 @@
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>79</v>
@@ -4525,7 +4470,7 @@
         <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>79</v>
@@ -4533,10 +4478,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4559,13 +4504,13 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4616,7 +4561,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -4631,7 +4576,7 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>79</v>
@@ -4640,7 +4585,7 @@
         <v>79</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>79</v>
@@ -4648,10 +4593,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4674,16 +4619,16 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4733,7 +4678,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4748,7 +4693,7 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>79</v>
@@ -4757,7 +4702,7 @@
         <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
@@ -4765,10 +4710,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4791,70 +4736,70 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q21" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q21" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4869,13 +4814,13 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>170</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4886,10 +4831,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4912,19 +4857,19 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4971,7 +4916,7 @@
         <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4986,16 +4931,16 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -5003,10 +4948,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5118,10 +5063,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5235,10 +5180,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5264,16 +5209,16 @@
         <v>107</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -5301,10 +5246,10 @@
         <v>183</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>79</v>
@@ -5322,7 +5267,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -5337,7 +5282,7 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
@@ -5346,7 +5291,7 @@
         <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
@@ -5354,10 +5299,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5383,16 +5328,16 @@
         <v>166</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -5441,7 +5386,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5456,7 +5401,7 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>79</v>
@@ -5465,7 +5410,7 @@
         <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -5473,14 +5418,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5502,13 +5447,13 @@
         <v>166</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5558,7 +5503,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5573,7 +5518,7 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>79</v>
@@ -5582,7 +5527,7 @@
         <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -5590,14 +5535,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5619,13 +5564,13 @@
         <v>166</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5675,7 +5620,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5690,7 +5635,7 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>79</v>
@@ -5699,7 +5644,7 @@
         <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5707,10 +5652,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5736,10 +5681,10 @@
         <v>166</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5790,7 +5735,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5805,7 +5750,7 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>79</v>
@@ -5814,7 +5759,7 @@
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5822,10 +5767,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5851,10 +5796,10 @@
         <v>166</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5905,7 +5850,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5920,7 +5865,7 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>79</v>
@@ -5929,7 +5874,7 @@
         <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5937,10 +5882,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5963,17 +5908,17 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -6022,7 +5967,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -6037,7 +5982,7 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>79</v>
@@ -6046,7 +5991,7 @@
         <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -6054,10 +5999,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>6</v>
@@ -6082,19 +6027,19 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -6104,7 +6049,7 @@
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -6143,7 +6088,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -6158,16 +6103,16 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -6175,13 +6120,13 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>79</v>
@@ -6203,19 +6148,19 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -6225,7 +6170,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6264,7 +6209,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -6279,16 +6224,16 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -6296,10 +6241,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6322,19 +6267,19 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -6383,7 +6328,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -6398,16 +6343,16 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
@@ -6415,10 +6360,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6444,16 +6389,16 @@
         <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -6481,10 +6426,10 @@
         <v>183</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -6502,7 +6447,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6517,16 +6462,16 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -6534,10 +6479,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6560,19 +6505,19 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -6621,7 +6566,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6636,27 +6581,27 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6679,19 +6624,19 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6740,7 +6685,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6755,7 +6700,7 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>170</v>
@@ -6764,7 +6709,7 @@
         <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6772,10 +6717,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6798,19 +6743,19 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6823,7 +6768,7 @@
         <v>79</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>79</v>
@@ -6859,7 +6804,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6871,10 +6816,10 @@
         <v>161</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
@@ -6883,7 +6828,7 @@
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6891,10 +6836,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7006,14 +6951,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7035,12 +6980,14 @@
         <v>133</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>366</v>
+        <v>134</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -7104,7 +7051,7 @@
         <v>138</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>79</v>
@@ -7121,13 +7068,13 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C41" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>79</v>
@@ -7149,13 +7096,13 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7221,7 +7168,7 @@
         <v>138</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
@@ -7238,10 +7185,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7267,16 +7214,16 @@
         <v>107</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -7289,7 +7236,7 @@
         <v>79</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>79</v>
@@ -7304,28 +7251,28 @@
         <v>183</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="Z42" t="s" s="2">
+      <c r="AA42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -7340,7 +7287,7 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>79</v>
@@ -7349,7 +7296,7 @@
         <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -7357,10 +7304,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7386,13 +7333,13 @@
         <v>107</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7406,7 +7353,7 @@
         <v>79</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>79</v>
@@ -7421,28 +7368,28 @@
         <v>183</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="Z43" t="s" s="2">
+      <c r="AA43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -7457,7 +7404,7 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>79</v>
@@ -7466,7 +7413,7 @@
         <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -7474,10 +7421,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7503,16 +7450,16 @@
         <v>166</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="N44" t="s" s="2">
-        <v>396</v>
-      </c>
       <c r="O44" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -7525,43 +7472,43 @@
         <v>79</v>
       </c>
       <c r="T44" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7576,7 +7523,7 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
@@ -7585,7 +7532,7 @@
         <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -7593,10 +7540,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7607,7 +7554,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>88</v>
@@ -7622,10 +7569,10 @@
         <v>166</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7640,43 +7587,43 @@
         <v>79</v>
       </c>
       <c r="T45" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7691,16 +7638,16 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7708,10 +7655,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7737,10 +7684,10 @@
         <v>166</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7823,10 +7770,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7852,10 +7799,10 @@
         <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7936,13 +7883,13 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>79</v>
@@ -7964,13 +7911,13 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8036,7 +7983,7 @@
         <v>138</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>79</v>
@@ -8053,13 +8000,13 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>79</v>
@@ -8081,13 +8028,13 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8153,7 +8100,7 @@
         <v>138</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>79</v>
@@ -8170,13 +8117,13 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>79</v>
@@ -8198,13 +8145,13 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>425</v>
-      </c>
       <c r="M50" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8270,7 +8217,7 @@
         <v>138</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
@@ -8287,13 +8234,13 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>79</v>
@@ -8315,13 +8262,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="M51" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8387,7 +8334,7 @@
         <v>138</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
@@ -8404,10 +8351,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8433,10 +8380,10 @@
         <v>166</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8460,7 +8407,7 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="X52" t="s" s="2">
         <v>79</v>
@@ -8487,7 +8434,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8519,14 +8466,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8548,10 +8495,10 @@
         <v>166</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8566,7 +8513,7 @@
         <v>79</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>79</v>
@@ -8602,7 +8549,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8617,7 +8564,7 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>79</v>
@@ -8626,7 +8573,7 @@
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8634,14 +8581,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8663,13 +8610,13 @@
         <v>166</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8683,7 +8630,7 @@
         <v>79</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>79</v>
@@ -8719,7 +8666,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8734,7 +8681,7 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
@@ -8743,7 +8690,7 @@
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8751,14 +8698,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8780,10 +8727,10 @@
         <v>166</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8814,7 +8761,7 @@
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
@@ -8832,7 +8779,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8847,7 +8794,7 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
@@ -8856,7 +8803,7 @@
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8864,14 +8811,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8893,10 +8840,10 @@
         <v>166</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8911,7 +8858,7 @@
         <v>79</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>79</v>
@@ -8947,7 +8894,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8962,7 +8909,7 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>79</v>
@@ -8971,7 +8918,7 @@
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>79</v>
@@ -8979,10 +8926,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9008,13 +8955,13 @@
         <v>166</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9044,7 +8991,7 @@
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>79</v>
@@ -9062,7 +9009,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -9077,7 +9024,7 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>79</v>
@@ -9086,7 +9033,7 @@
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>79</v>
@@ -9094,10 +9041,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9120,17 +9067,17 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -9143,7 +9090,7 @@
         <v>79</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>79</v>
@@ -9179,7 +9126,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -9194,7 +9141,7 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>79</v>
@@ -9203,7 +9150,7 @@
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>79</v>
@@ -9211,10 +9158,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9237,16 +9184,18 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>167</v>
+        <v>489</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>168</v>
+        <v>490</v>
       </c>
       <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9270,13 +9219,13 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>79</v>
@@ -9294,7 +9243,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>169</v>
+        <v>488</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -9306,19 +9255,19 @@
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>170</v>
+        <v>494</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>79</v>
+        <v>495</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>79</v>
@@ -9326,21 +9275,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9352,18 +9301,20 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>133</v>
+        <v>498</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>134</v>
+        <v>499</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>173</v>
+        <v>500</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9399,43 +9350,43 @@
         <v>79</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>176</v>
+        <v>497</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AL60" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>79</v>
+        <v>504</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
@@ -9443,10 +9394,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9457,7 +9408,7 @@
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9466,21 +9417,23 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9528,31 +9481,31 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -9560,10 +9513,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9574,7 +9527,7 @@
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9583,27 +9536,27 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q62" t="s" s="2">
-        <v>502</v>
-      </c>
+      <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9647,31 +9600,31 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>519</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>79</v>
@@ -9679,10 +9632,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9705,18 +9658,16 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>507</v>
+        <v>167</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>508</v>
+        <v>168</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>509</v>
-      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9740,13 +9691,13 @@
         <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>79</v>
@@ -9764,7 +9715,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>506</v>
+        <v>169</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9776,19 +9727,19 @@
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>512</v>
+        <v>170</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>514</v>
+        <v>79</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -9796,21 +9747,21 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9822,20 +9773,18 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>516</v>
+        <v>133</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>517</v>
+        <v>134</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>518</v>
+        <v>173</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9883,31 +9832,31 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>515</v>
+        <v>176</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>521</v>
+        <v>170</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>522</v>
+        <v>79</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
@@ -9922,7 +9871,7 @@
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>79</v>
+        <v>524</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9935,13 +9884,13 @@
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>524</v>
+        <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>525</v>
@@ -9950,10 +9899,10 @@
         <v>526</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>527</v>
+        <v>136</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>528</v>
+        <v>142</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -10002,7 +9951,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -10014,19 +9963,19 @@
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>529</v>
+        <v>130</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>79</v>
@@ -10034,10 +9983,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10060,19 +10009,17 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>532</v>
+        <v>190</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -10097,13 +10044,13 @@
         <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>532</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>79</v>
+        <v>533</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
@@ -10121,7 +10068,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -10133,10 +10080,10 @@
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>537</v>
+        <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>170</v>
@@ -10145,7 +10092,7 @@
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>79</v>
@@ -10153,10 +10100,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10179,16 +10126,18 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>167</v>
+        <v>537</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>168</v>
+        <v>538</v>
       </c>
       <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>79</v>
       </c>
@@ -10236,7 +10185,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>169</v>
+        <v>536</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -10248,19 +10197,19 @@
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AL67" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>79</v>
@@ -10268,14 +10217,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10294,18 +10243,20 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>134</v>
+        <v>542</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>173</v>
+        <v>543</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>544</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10353,7 +10304,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>176</v>
+        <v>541</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -10365,19 +10316,19 @@
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AL68" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>79</v>
+        <v>545</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>79</v>
@@ -10385,45 +10336,43 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>542</v>
+        <v>79</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>133</v>
+        <v>547</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>142</v>
+        <v>550</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -10472,31 +10421,31 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>130</v>
+        <v>551</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>79</v>
@@ -10504,10 +10453,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10518,7 +10467,7 @@
         <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10530,17 +10479,17 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -10565,13 +10514,13 @@
         <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>550</v>
+        <v>332</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>551</v>
+        <v>333</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>79</v>
@@ -10589,13 +10538,13 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>79</v>
@@ -10604,7 +10553,7 @@
         <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>552</v>
+        <v>334</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>170</v>
@@ -10613,7 +10562,7 @@
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
@@ -10621,10 +10570,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10647,17 +10596,17 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
@@ -10706,7 +10655,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10715,13 +10664,13 @@
         <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>79</v>
+        <v>562</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>253</v>
+        <v>563</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>170</v>
@@ -10730,7 +10679,7 @@
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
@@ -10738,10 +10687,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10752,7 +10701,7 @@
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10764,20 +10713,16 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10825,13 +10770,13 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>79</v>
@@ -10840,7 +10785,7 @@
         <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>323</v>
+        <v>568</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>170</v>
@@ -10849,7 +10794,7 @@
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>563</v>
+        <v>79</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10857,10 +10802,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10871,7 +10816,7 @@
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10883,17 +10828,19 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>565</v>
+        <v>514</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>571</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>572</v>
+      </c>
       <c r="O73" t="s" s="2">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -10942,13 +10889,13 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>79</v>
@@ -10957,16 +10904,16 @@
         <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>170</v>
+        <v>575</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>570</v>
+        <v>79</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
@@ -10974,10 +10921,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11000,18 +10947,16 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>572</v>
+        <v>167</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>573</v>
+        <v>168</v>
       </c>
       <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>574</v>
-      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>79</v>
       </c>
@@ -11035,13 +10980,13 @@
         <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>79</v>
@@ -11059,7 +11004,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>571</v>
+        <v>169</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -11071,19 +11016,19 @@
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>333</v>
+        <v>170</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>575</v>
+        <v>79</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -11091,21 +11036,21 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -11117,18 +11062,18 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>577</v>
+        <v>134</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>579</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>79</v>
       </c>
@@ -11176,31 +11121,31 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>576</v>
+        <v>176</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>580</v>
+        <v>79</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>581</v>
+        <v>170</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>582</v>
+        <v>79</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>79</v>
@@ -11208,42 +11153,46 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>79</v>
+        <v>524</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>584</v>
+        <v>525</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>79</v>
       </c>
@@ -11291,25 +11240,25 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>583</v>
+        <v>527</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>586</v>
+        <v>130</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11323,10 +11272,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11334,10 +11283,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11349,19 +11298,19 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>532</v>
+        <v>190</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>79</v>
@@ -11386,13 +11335,13 @@
         <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>79</v>
@@ -11410,13 +11359,13 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>79</v>
@@ -11425,16 +11374,16 @@
         <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>79</v>
+        <v>586</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>79</v>
@@ -11442,10 +11391,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11468,16 +11417,20 @@
         <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>166</v>
+        <v>240</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>167</v>
+        <v>588</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>591</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>79</v>
       </c>
@@ -11525,7 +11478,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>169</v>
+        <v>587</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11537,19 +11490,19 @@
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>170</v>
+        <v>592</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>79</v>
+        <v>593</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>79</v>
+        <v>594</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -11564,7 +11517,7 @@
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>132</v>
+        <v>596</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11583,16 +11536,16 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>133</v>
+        <v>597</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>134</v>
+        <v>598</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>173</v>
+        <v>599</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>136</v>
+        <v>600</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11642,7 +11595,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>176</v>
+        <v>595</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -11654,19 +11607,19 @@
         <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK79" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AL79" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>79</v>
+        <v>602</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -11674,45 +11627,45 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>542</v>
+        <v>79</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>543</v>
+        <v>604</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>544</v>
+        <v>605</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>136</v>
+        <v>606</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>142</v>
+        <v>607</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>79</v>
@@ -11761,25 +11714,25 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>545</v>
+        <v>603</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>130</v>
+        <v>563</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>79</v>
+        <v>608</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
@@ -11793,10 +11746,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11804,34 +11757,34 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>190</v>
+        <v>514</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -11856,13 +11809,13 @@
         <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>79</v>
@@ -11880,13 +11833,13 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>79</v>
@@ -11895,16 +11848,16 @@
         <v>99</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>603</v>
+        <v>170</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>604</v>
+        <v>79</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>79</v>
@@ -11912,10 +11865,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11938,20 +11891,16 @@
         <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>239</v>
+        <v>166</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>606</v>
+        <v>167</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>79</v>
       </c>
@@ -11999,7 +11948,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>605</v>
+        <v>169</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -12011,19 +11960,19 @@
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>610</v>
+        <v>170</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>611</v>
+        <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>612</v>
+        <v>79</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>79</v>
@@ -12031,14 +11980,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>614</v>
+        <v>132</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12057,16 +12006,16 @@
         <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>615</v>
+        <v>133</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>616</v>
+        <v>134</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>617</v>
+        <v>173</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>618</v>
+        <v>136</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12116,7 +12065,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>613</v>
+        <v>176</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -12128,19 +12077,19 @@
         <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>619</v>
+        <v>170</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>620</v>
+        <v>79</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>79</v>
@@ -12148,45 +12097,45 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>79</v>
+        <v>524</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>622</v>
+        <v>525</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>623</v>
+        <v>526</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>624</v>
+        <v>136</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>625</v>
+        <v>142</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>79</v>
@@ -12235,25 +12184,25 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>621</v>
+        <v>527</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>581</v>
+        <v>130</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>626</v>
+        <v>79</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -12267,10 +12216,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12278,35 +12227,33 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>532</v>
+        <v>619</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>631</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>79</v>
       </c>
@@ -12354,13 +12301,13 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>79</v>
@@ -12369,7 +12316,7 @@
         <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>632</v>
+        <v>151</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>170</v>
@@ -12378,7 +12325,7 @@
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>79</v>
+        <v>623</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>79</v>
@@ -12386,10 +12333,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12397,7 +12344,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>87</v>
@@ -12409,16 +12356,16 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>167</v>
+        <v>625</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>168</v>
+        <v>626</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12445,13 +12392,13 @@
         <v>79</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>79</v>
+        <v>626</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>79</v>
+        <v>627</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>79</v>
@@ -12469,10 +12416,10 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>169</v>
+        <v>624</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>87</v>
@@ -12481,14 +12428,14 @@
         <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AL86" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12496,479 +12443,11 @@
         <v>79</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="O89" s="2"/>
-      <c r="P89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO90" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO90">
+  <autoFilter ref="A1:AO86">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12978,7 +12457,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI89">
+  <conditionalFormatting sqref="A2:AI85">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
